--- a/設計書/01.基本設計/02.画面設計/画面設計書(ログイン).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(ログイン).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E46C5-42F0-41A0-ADCE-9A9CB451BEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11065CB-6C75-4451-9F93-4A418835D8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>システム名</t>
   </si>
@@ -139,12 +139,21 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,6 +203,34 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -530,32 +567,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,12 +607,37 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -607,190 +659,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1724025" cy="619125"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4655438" y="3594263"/>
-          <a:ext cx="1381125" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="434343">
-              <a:alpha val="0"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Online Shop</a:t>
-          </a:r>
-          <a:endParaRPr sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1076325" cy="266700"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812600" y="3656175"/>
-          <a:ext cx="1066800" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:rPr>
-            <a:t>Ⓒ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ISA Plan, Inc.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7134225" cy="3886200"/>
+    <xdr:ext cx="7210425" cy="3886200"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Shape 5" title="図形描画">
@@ -804,10 +678,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="1228725"/>
-          <a:ext cx="7134225" cy="3886200"/>
+          <a:off x="28575" y="1238250"/>
+          <a:ext cx="7210425" cy="3886200"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="8768400" cy="4775200"/>
+          <a:chExt cx="8862054" cy="4775200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1181,8 +1055,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8095200" y="260450"/>
-            <a:ext cx="825600" cy="317400"/>
+            <a:off x="8095200" y="260448"/>
+            <a:ext cx="919254" cy="418627"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1317,12 +1191,202 @@
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABA727F-2CC1-4E9B-A4CE-2D37D6C3434D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="5162549"/>
+          <a:ext cx="6305549" cy="3876676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="16906875" cy="571500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="714375"/>
+          <a:ext cx="16906875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="434343">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1076325" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4812600" y="3656175"/>
+          <a:ext cx="1066800" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:rPr>
+            <a:t>Ⓒ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ISA Plan, Inc.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="238125"/>
     <xdr:sp macro="" textlink="">
@@ -1338,7 +1402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1125842">
-          <a:off x="5772150" y="1581150"/>
+          <a:off x="5619749" y="1590675"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1385,6 +1449,623 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107371</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Shape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4F3C61-476A-47B3-9B56-4402A7891EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="5558547"/>
+          <a:ext cx="154996" cy="3008891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>89778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107371</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Shape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46E4BDE-1BDF-4AD0-9779-F5BF00E59EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="8576553"/>
+          <a:ext cx="154996" cy="413344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107371</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Shape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F704B0-47F9-4E7B-B37F-B0508E66A68A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="5124450"/>
+          <a:ext cx="154996" cy="413344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE10E9D8-85E6-451C-8BBA-958B5806C7F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="5353050"/>
+          <a:ext cx="695325" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Shape 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A40E7FA-7ADC-4B3A-8FD4-F4855723C9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1125842">
+          <a:off x="5410201" y="5753100"/>
+          <a:ext cx="276225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30005"/>
+            <a:gd name="adj2" fmla="val -62002"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AFACED-A04F-4CFD-92F7-9AE9E615A503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3895724" y="3486150"/>
+          <a:ext cx="3609979" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF8017A-6716-4DE1-81AC-097AF8008626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="3829050"/>
+          <a:ext cx="704850" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD7E5F2-1700-4C36-8B34-9CF50F972C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="2028825"/>
+          <a:ext cx="1066800" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>未ログイン時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6149C243-1DBE-458A-8E49-02595E240E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="6124576"/>
+          <a:ext cx="1028700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログイン時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1691,7 +2372,7 @@
   <dimension ref="A1:BZ824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP3" sqref="BP3"/>
+      <selection activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1701,14 +2382,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="29"/>
@@ -1753,32 +2434,32 @@
       <c r="AT1" s="29"/>
       <c r="AU1" s="29"/>
       <c r="AV1" s="30"/>
-      <c r="AW1" s="37" t="s">
+      <c r="AW1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="29"/>
       <c r="AY1" s="29"/>
       <c r="AZ1" s="29"/>
       <c r="BA1" s="30"/>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="37" t="s">
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BH1" s="32"/>
+      <c r="BI1" s="32"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="BL1" s="29"/>
       <c r="BM1" s="29"/>
       <c r="BN1" s="29"/>
       <c r="BO1" s="30"/>
-      <c r="BP1" s="49" t="s">
+      <c r="BP1" s="45" t="s">
         <v>5</v>
       </c>
       <c r="BQ1" s="29"/>
@@ -1788,91 +2469,91 @@
       <c r="BU1" s="29"/>
       <c r="BV1" s="29"/>
       <c r="BW1" s="29"/>
-      <c r="BX1" s="50"/>
+      <c r="BX1" s="46"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="36" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="36" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="48" t="s">
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="36" t="s">
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="49" t="s">
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="BQ2" s="29"/>
@@ -1882,7 +2563,7 @@
       <c r="BU2" s="29"/>
       <c r="BV2" s="29"/>
       <c r="BW2" s="29"/>
-      <c r="BX2" s="50"/>
+      <c r="BX2" s="46"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -2087,51 +2768,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="42" t="s">
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="42" t="s">
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="42" t="s">
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="44"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="40"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -2175,43 +2856,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="46"/>
-      <c r="BR6" s="46"/>
-      <c r="BS6" s="46"/>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="47"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="42"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="42"/>
+      <c r="BL6" s="42"/>
+      <c r="BM6" s="42"/>
+      <c r="BN6" s="42"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
+      <c r="BQ6" s="42"/>
+      <c r="BR6" s="42"/>
+      <c r="BS6" s="42"/>
+      <c r="BT6" s="42"/>
+      <c r="BU6" s="42"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="43"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -2255,10 +2936,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="26" t="s">
+      <c r="AM7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="27"/>
+      <c r="AN7" s="49"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2423,10 +3104,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="26" t="s">
+      <c r="AM9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="27"/>
+      <c r="AN9" s="49"/>
       <c r="AO9" s="11" t="s">
         <v>21</v>
       </c>
@@ -2591,10 +3272,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="26" t="s">
+      <c r="AM11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AN11" s="27"/>
+      <c r="AN11" s="49"/>
       <c r="AO11" s="11" t="s">
         <v>24</v>
       </c>
@@ -2759,27 +3440,27 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="26" t="s">
+      <c r="AM13" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="27"/>
-      <c r="AO13" t="s">
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
       <c r="AT13" s="12"/>
       <c r="AU13" s="13"/>
-      <c r="AV13" t="s">
+      <c r="AV13" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AW13" s="12"/>
+      <c r="AW13" s="55"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="13"/>
-      <c r="BA13" s="52" t="s">
+      <c r="BA13" s="26" t="s">
         <v>29</v>
       </c>
       <c r="BB13" s="12"/>
@@ -2847,8 +3528,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="27"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="49"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -2861,7 +3542,7 @@
       <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="13"/>
-      <c r="BA14" s="53" t="s">
+      <c r="BA14" s="27" t="s">
         <v>30</v>
       </c>
       <c r="BB14" s="12"/>
@@ -2952,20 +3633,20 @@
       <c r="BG15" s="12"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
-      <c r="BJ15" s="12" t="s">
+      <c r="BJ15" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BK15" s="12"/>
-      <c r="BL15" s="4"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
-      <c r="BP15" s="4"/>
-      <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
-      <c r="BT15" s="4"/>
-      <c r="BU15" s="4"/>
+      <c r="BK15" s="55"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
+      <c r="BP15" s="56"/>
+      <c r="BQ15" s="56"/>
+      <c r="BR15" s="56"/>
+      <c r="BS15" s="56"/>
+      <c r="BT15" s="56"/>
+      <c r="BU15" s="56"/>
       <c r="BV15" s="4"/>
       <c r="BW15" s="8"/>
       <c r="BX15" s="8"/>
@@ -3011,8 +3692,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="27"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="49"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -3331,8 +4012,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="27"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="49"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3571,8 +4252,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="27"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="49"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -3811,8 +4492,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="27"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="49"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -4046,13 +4727,15 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
+      <c r="AH29" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="27"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="49"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -4766,7 +5449,9 @@
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
+      <c r="AH38" s="57" t="s">
+        <v>36</v>
+      </c>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
@@ -5486,7 +6171,9 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
+      <c r="AH47" s="57" t="s">
+        <v>35</v>
+      </c>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
@@ -67694,19 +68381,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67722,6 +68396,19 @@
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AE2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
